--- a/com_Web_Application_Automate/src/com.facebook.resources/Excel Test Data.xlsx
+++ b/com_Web_Application_Automate/src/com.facebook.resources/Excel Test Data.xlsx
@@ -15,12 +15,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Emailorphone</t>
+  </si>
+  <si>
+    <t>Malhari</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>malharipatil01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navnath </t>
+  </si>
+  <si>
+    <t>Navnath@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -43,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,14 +392,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
